--- a/Working files/IIL Price list.xlsx
+++ b/Working files/IIL Price list.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28025"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="20416"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Rehan Aslam\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Pioneer\Working files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA0D33F2-77A7-41D8-BC2F-DFBF8CAA7B05}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D6124219-51B9-4442-8AC6-BACBA605A62E}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Table 2" sheetId="2" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029" iterate="1"/>
 </workbook>
 </file>
 
@@ -133,7 +133,7 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
     <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="165" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="164" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
   <fonts count="7">
     <font>
@@ -273,9 +273,33 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="3"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" shrinkToFit="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1" indent="8"/>
     </xf>
@@ -285,38 +309,14 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="3"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="3"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="3"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" indent="3"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="6" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" shrinkToFit="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -337,9 +337,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Office 2007 - 2010">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -377,9 +377,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office 2007 - 2010">
+    <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -412,9 +412,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -447,9 +464,26 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office 2007 - 2010">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -623,9 +657,12 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
   <dimension ref="A1:G16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="60" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="O17" sqref="O17"/>
     </sheetView>
   </sheetViews>
@@ -641,373 +678,373 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="22.5" customHeight="1">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="3"/>
-      <c r="D1" s="4" t="s">
+      <c r="C1" s="11"/>
+      <c r="D1" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="5" t="s">
+      <c r="E1" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="F1" s="6"/>
-      <c r="G1" s="8"/>
+      <c r="F1" s="15"/>
+      <c r="G1" s="1"/>
     </row>
     <row r="2" spans="1:7" ht="22.5" customHeight="1">
-      <c r="A2" s="7"/>
-      <c r="B2" s="8" t="s">
+      <c r="A2" s="9"/>
+      <c r="B2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="8" t="s">
+      <c r="C2" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D2" s="9"/>
-      <c r="E2" s="10" t="s">
+      <c r="D2" s="13"/>
+      <c r="E2" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="F2" s="11" t="s">
+      <c r="F2" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="G2" s="8" t="s">
+      <c r="G2" s="1" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="18">
-      <c r="A3" s="12" t="s">
-        <v>9</v>
-      </c>
-      <c r="B3" s="12" t="s">
+      <c r="A3" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B3" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="C3" s="13">
+      <c r="C3" s="5">
         <v>15</v>
       </c>
-      <c r="D3" s="13">
+      <c r="D3" s="5">
         <v>2.77</v>
       </c>
-      <c r="E3" s="15">
+      <c r="E3" s="7">
         <v>2463.88</v>
       </c>
-      <c r="F3" s="15">
+      <c r="F3" s="7">
         <v>2965.53</v>
       </c>
-      <c r="G3" s="15">
+      <c r="G3" s="7">
         <f>F3/20</f>
         <v>148.2765</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="18">
-      <c r="A4" s="12" t="s">
-        <v>9</v>
-      </c>
-      <c r="B4" s="12" t="s">
+      <c r="A4" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="C4" s="13">
+      <c r="C4" s="5">
         <v>20</v>
       </c>
-      <c r="D4" s="13">
+      <c r="D4" s="5">
         <v>2.87</v>
       </c>
-      <c r="E4" s="15">
+      <c r="E4" s="7">
         <v>3040.01</v>
       </c>
-      <c r="F4" s="15">
+      <c r="F4" s="7">
         <v>3658.95</v>
       </c>
-      <c r="G4" s="15">
+      <c r="G4" s="7">
         <f t="shared" ref="G4:G16" si="0">F4/20</f>
         <v>182.94749999999999</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="18">
-      <c r="A5" s="12" t="s">
-        <v>9</v>
-      </c>
-      <c r="B5" s="14">
+      <c r="A5" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B5" s="6">
         <v>1</v>
       </c>
-      <c r="C5" s="13">
+      <c r="C5" s="5">
         <v>25</v>
       </c>
-      <c r="D5" s="13">
+      <c r="D5" s="5">
         <v>3.38</v>
       </c>
-      <c r="E5" s="15">
+      <c r="E5" s="7">
         <v>4429.63</v>
       </c>
-      <c r="F5" s="15">
+      <c r="F5" s="7">
         <v>5331.5</v>
       </c>
-      <c r="G5" s="15">
+      <c r="G5" s="7">
         <f t="shared" si="0"/>
         <v>266.57499999999999</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="18">
-      <c r="A6" s="12" t="s">
-        <v>9</v>
-      </c>
-      <c r="B6" s="12" t="s">
+      <c r="A6" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B6" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="13">
+      <c r="C6" s="5">
         <v>32</v>
       </c>
-      <c r="D6" s="13">
+      <c r="D6" s="5">
         <v>3.56</v>
       </c>
-      <c r="E6" s="15">
+      <c r="E6" s="7">
         <v>5909.23</v>
       </c>
-      <c r="F6" s="15">
+      <c r="F6" s="7">
         <v>7112.36</v>
       </c>
-      <c r="G6" s="15">
+      <c r="G6" s="7">
         <f t="shared" si="0"/>
         <v>355.61799999999999</v>
       </c>
     </row>
     <row r="7" spans="1:7" ht="18">
-      <c r="A7" s="12" t="s">
-        <v>9</v>
-      </c>
-      <c r="B7" s="12" t="s">
+      <c r="A7" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B7" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="C7" s="13">
+      <c r="C7" s="5">
         <v>40</v>
       </c>
-      <c r="D7" s="13">
+      <c r="D7" s="5">
         <v>3.68</v>
       </c>
-      <c r="E7" s="15">
+      <c r="E7" s="7">
         <v>6879.28</v>
       </c>
-      <c r="F7" s="15">
+      <c r="F7" s="7">
         <v>8279.9</v>
       </c>
-      <c r="G7" s="15">
+      <c r="G7" s="7">
         <f t="shared" si="0"/>
         <v>413.995</v>
       </c>
     </row>
     <row r="8" spans="1:7" ht="18">
-      <c r="A8" s="12" t="s">
-        <v>9</v>
-      </c>
-      <c r="B8" s="14">
+      <c r="A8" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B8" s="6">
         <v>2</v>
       </c>
-      <c r="C8" s="13">
+      <c r="C8" s="5">
         <v>50</v>
       </c>
-      <c r="D8" s="13">
+      <c r="D8" s="5">
         <v>3.91</v>
       </c>
-      <c r="E8" s="15">
+      <c r="E8" s="7">
         <v>9214.7800000000007</v>
       </c>
-      <c r="F8" s="15">
+      <c r="F8" s="7">
         <v>11090.91</v>
       </c>
-      <c r="G8" s="15">
+      <c r="G8" s="7">
         <f t="shared" si="0"/>
         <v>554.54549999999995</v>
       </c>
     </row>
     <row r="9" spans="1:7" ht="18">
-      <c r="A9" s="12" t="s">
-        <v>9</v>
-      </c>
-      <c r="B9" s="12" t="s">
+      <c r="A9" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B9" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="C9" s="13">
+      <c r="C9" s="5">
         <v>65</v>
       </c>
-      <c r="D9" s="13">
+      <c r="D9" s="5">
         <v>5.16</v>
       </c>
-      <c r="E9" s="15">
+      <c r="E9" s="7">
         <v>15003.12</v>
       </c>
-      <c r="F9" s="15">
+      <c r="F9" s="7">
         <v>18057.75</v>
       </c>
-      <c r="G9" s="15">
+      <c r="G9" s="7">
         <f t="shared" si="0"/>
         <v>902.88750000000005</v>
       </c>
     </row>
     <row r="10" spans="1:7" ht="18">
-      <c r="A10" s="12" t="s">
-        <v>9</v>
-      </c>
-      <c r="B10" s="14">
+      <c r="A10" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B10" s="6">
         <v>3</v>
       </c>
-      <c r="C10" s="13">
+      <c r="C10" s="5">
         <v>80</v>
       </c>
-      <c r="D10" s="13">
+      <c r="D10" s="5">
         <v>5.49</v>
       </c>
-      <c r="E10" s="15">
+      <c r="E10" s="7">
         <v>19078.2</v>
       </c>
-      <c r="F10" s="15">
+      <c r="F10" s="7">
         <v>22962.52</v>
       </c>
-      <c r="G10" s="15">
+      <c r="G10" s="7">
         <f t="shared" si="0"/>
         <v>1148.126</v>
       </c>
     </row>
     <row r="11" spans="1:7" ht="18">
-      <c r="A11" s="12" t="s">
-        <v>9</v>
-      </c>
-      <c r="B11" s="14">
+      <c r="A11" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B11" s="6">
         <v>4</v>
       </c>
-      <c r="C11" s="13">
+      <c r="C11" s="5">
         <v>100</v>
       </c>
-      <c r="D11" s="13">
+      <c r="D11" s="5">
         <v>6.02</v>
       </c>
-      <c r="E11" s="15">
+      <c r="E11" s="7">
         <v>27777.439999999999</v>
       </c>
-      <c r="F11" s="15">
+      <c r="F11" s="7">
         <v>33432.93</v>
       </c>
-      <c r="G11" s="15">
+      <c r="G11" s="7">
         <f t="shared" si="0"/>
         <v>1671.6465000000001</v>
       </c>
     </row>
     <row r="12" spans="1:7" ht="18">
-      <c r="A12" s="12" t="s">
-        <v>9</v>
-      </c>
-      <c r="B12" s="14">
+      <c r="A12" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B12" s="6">
         <v>5</v>
       </c>
-      <c r="C12" s="13">
+      <c r="C12" s="5">
         <v>125</v>
       </c>
-      <c r="D12" s="13">
+      <c r="D12" s="5">
         <v>6.55</v>
       </c>
-      <c r="E12" s="15">
+      <c r="E12" s="7">
         <v>37704.589999999997</v>
       </c>
-      <c r="F12" s="15">
+      <c r="F12" s="7">
         <v>45381.25</v>
       </c>
-      <c r="G12" s="15">
+      <c r="G12" s="7">
         <f t="shared" si="0"/>
         <v>2269.0625</v>
       </c>
     </row>
     <row r="13" spans="1:7" ht="18">
-      <c r="A13" s="12" t="s">
-        <v>9</v>
-      </c>
-      <c r="B13" s="14">
+      <c r="A13" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B13" s="6">
         <v>6</v>
       </c>
-      <c r="C13" s="13">
+      <c r="C13" s="5">
         <v>150</v>
       </c>
-      <c r="D13" s="13">
+      <c r="D13" s="5">
         <v>7.11</v>
       </c>
-      <c r="E13" s="15">
+      <c r="E13" s="7">
         <v>49257.65</v>
       </c>
-      <c r="F13" s="15">
+      <c r="F13" s="7">
         <v>59286.51</v>
       </c>
-      <c r="G13" s="15">
+      <c r="G13" s="7">
         <f t="shared" si="0"/>
         <v>2964.3254999999999</v>
       </c>
     </row>
     <row r="14" spans="1:7" ht="18">
-      <c r="A14" s="12" t="s">
-        <v>9</v>
-      </c>
-      <c r="B14" s="14">
+      <c r="A14" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B14" s="6">
         <v>8</v>
       </c>
-      <c r="C14" s="13">
+      <c r="C14" s="5">
         <v>200</v>
       </c>
-      <c r="D14" s="13">
+      <c r="D14" s="5">
         <v>8.18</v>
       </c>
-      <c r="E14" s="15">
+      <c r="E14" s="7">
         <v>75391.55</v>
       </c>
-      <c r="F14" s="15">
+      <c r="F14" s="7">
         <v>90741.27</v>
       </c>
-      <c r="G14" s="15">
+      <c r="G14" s="7">
         <f t="shared" si="0"/>
         <v>4537.0635000000002</v>
       </c>
     </row>
     <row r="15" spans="1:7" ht="18">
-      <c r="A15" s="12" t="s">
-        <v>9</v>
-      </c>
-      <c r="B15" s="14">
+      <c r="A15" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B15" s="6">
         <v>10</v>
       </c>
-      <c r="C15" s="13">
+      <c r="C15" s="5">
         <v>250</v>
       </c>
-      <c r="D15" s="13">
+      <c r="D15" s="5">
         <v>9.27</v>
       </c>
-      <c r="E15" s="15">
+      <c r="E15" s="7">
         <v>106841.07</v>
       </c>
-      <c r="F15" s="15">
+      <c r="F15" s="7">
         <v>128593.91</v>
       </c>
-      <c r="G15" s="15">
+      <c r="G15" s="7">
         <f t="shared" si="0"/>
         <v>6429.6954999999998</v>
       </c>
     </row>
     <row r="16" spans="1:7" ht="18">
-      <c r="A16" s="12" t="s">
-        <v>9</v>
-      </c>
-      <c r="B16" s="14">
+      <c r="A16" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B16" s="6">
         <v>12</v>
       </c>
-      <c r="C16" s="13">
+      <c r="C16" s="5">
         <v>300</v>
       </c>
-      <c r="D16" s="13">
+      <c r="D16" s="5">
         <v>10.31</v>
       </c>
-      <c r="E16" s="15">
+      <c r="E16" s="7">
         <v>143237.32</v>
       </c>
-      <c r="F16" s="15">
+      <c r="F16" s="7">
         <v>172400.44</v>
       </c>
-      <c r="G16" s="15">
+      <c r="G16" s="7">
         <f t="shared" si="0"/>
         <v>8620.0220000000008</v>
       </c>
@@ -1020,6 +1057,6 @@
     <mergeCell ref="E1:F1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId1"/>
+  <pageSetup scale="98" fitToHeight="0" orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId1"/>
 </worksheet>
 </file>